--- a/data_visualization/deeplearning/chatbot/train_tools/qna/train_data.xlsx
+++ b/data_visualization/deeplearning/chatbot/train_tools/qna/train_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY\workspace\datascience\data_visualization\deeplearning\chatbot\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C029E12F-C216-4E12-BE33-937186128A86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DC6160-E405-43FF-ABEC-F92E9540BBCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{813C88C4-C503-48C2-83D2-7E8E3E2C8F9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,34 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>개체명(NER)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문(Query)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>의도(Intent)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개체명(NER)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문(Query)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변(answer)</t>
+    <t>답변(Answer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -55,12 +63,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네 안녕하세요:D
+    <t>네 안녕하세요 :D
 반갑습니다. 저는 챗봇입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반갑습니다</t>
+    <t>반가워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_FOOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 주문 처리 완료되었습니다. 
+주문해주셔서 감사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 주문할게요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_DT,B_TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_DT} 예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_DT}에 예약 접수 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕하면 나빠요 ㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 주문 처리 감사!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UluUFMp.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,9 +125,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -79,6 +136,24 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -93,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,22 +176,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,63 +530,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D58C0EA-F29A-4D6E-9E0E-F87D746FFD36}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{0E9BA614-0B84-764C-9F33-CC800C3C4E3B}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{F3941D0C-1C04-7A44-906E-8CC02273961F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>